--- a/Code/Results/Cases/Case_4_236/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_236/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00600795295329</v>
+        <v>1.04868399285477</v>
       </c>
       <c r="D2">
-        <v>1.028628651582289</v>
+        <v>1.054860339134333</v>
       </c>
       <c r="E2">
-        <v>1.014143472054142</v>
+        <v>1.052356275818464</v>
       </c>
       <c r="F2">
-        <v>1.032744271856149</v>
+        <v>1.063517475306389</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052305491318556</v>
+        <v>1.04425969776581</v>
       </c>
       <c r="J2">
-        <v>1.02801044017494</v>
+        <v>1.053726439327648</v>
       </c>
       <c r="K2">
-        <v>1.039703047124612</v>
+        <v>1.057602386701298</v>
       </c>
       <c r="L2">
-        <v>1.025409220591186</v>
+        <v>1.055105234753143</v>
       </c>
       <c r="M2">
-        <v>1.043765523657949</v>
+        <v>1.066235900098111</v>
       </c>
       <c r="N2">
-        <v>1.011346953803805</v>
+        <v>1.021481688717232</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013630184712425</v>
+        <v>1.050179542769677</v>
       </c>
       <c r="D3">
-        <v>1.034670419615363</v>
+        <v>1.056048379611261</v>
       </c>
       <c r="E3">
-        <v>1.021250441755794</v>
+        <v>1.053802302063283</v>
       </c>
       <c r="F3">
-        <v>1.039339895077236</v>
+        <v>1.064841305221988</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055042254072414</v>
+        <v>1.044680743021511</v>
       </c>
       <c r="J3">
-        <v>1.033756049996923</v>
+        <v>1.054868289139907</v>
       </c>
       <c r="K3">
-        <v>1.044878102015518</v>
+        <v>1.058602797307515</v>
       </c>
       <c r="L3">
-        <v>1.03161845185139</v>
+        <v>1.056362465725956</v>
       </c>
       <c r="M3">
-        <v>1.049492992224176</v>
+        <v>1.067373479898062</v>
       </c>
       <c r="N3">
-        <v>1.013459244546069</v>
+        <v>1.021884764034187</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.0184113417332</v>
+        <v>1.05114574237534</v>
       </c>
       <c r="D4">
-        <v>1.038462376073944</v>
+        <v>1.056815616780974</v>
       </c>
       <c r="E4">
-        <v>1.025714171407777</v>
+        <v>1.054736822203036</v>
       </c>
       <c r="F4">
-        <v>1.04348248492838</v>
+        <v>1.065696655898541</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056744161697133</v>
+        <v>1.044950900949727</v>
       </c>
       <c r="J4">
-        <v>1.037355527700124</v>
+        <v>1.055605225164153</v>
       </c>
       <c r="K4">
-        <v>1.04811773990221</v>
+        <v>1.059248056116493</v>
       </c>
       <c r="L4">
-        <v>1.035511846947939</v>
+        <v>1.057174308922963</v>
       </c>
       <c r="M4">
-        <v>1.053082979111453</v>
+        <v>1.068107769947436</v>
       </c>
       <c r="N4">
-        <v>1.014779828240084</v>
+        <v>1.022144351324956</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020387273854505</v>
+        <v>1.051551576218142</v>
       </c>
       <c r="D5">
-        <v>1.04002990249334</v>
+        <v>1.057137808254773</v>
       </c>
       <c r="E5">
-        <v>1.027560233849028</v>
+        <v>1.055129424573855</v>
       </c>
       <c r="F5">
-        <v>1.045195690324139</v>
+        <v>1.066055950338016</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057443903551214</v>
+        <v>1.045063930312082</v>
       </c>
       <c r="J5">
-        <v>1.038841945538964</v>
+        <v>1.055914579800928</v>
       </c>
       <c r="K5">
-        <v>1.049454956782176</v>
+        <v>1.059518831271309</v>
       </c>
       <c r="L5">
-        <v>1.037120476243865</v>
+        <v>1.057515214287037</v>
       </c>
       <c r="M5">
-        <v>1.054565896520728</v>
+        <v>1.06841603973656</v>
       </c>
       <c r="N5">
-        <v>1.015324485910418</v>
+        <v>1.022253189505872</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02071710072472</v>
+        <v>1.051619696825591</v>
       </c>
       <c r="D6">
-        <v>1.040291578103738</v>
+        <v>1.057191884950341</v>
       </c>
       <c r="E6">
-        <v>1.027868457965592</v>
+        <v>1.055195328607812</v>
       </c>
       <c r="F6">
-        <v>1.045481728298623</v>
+        <v>1.066116260321004</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057560491435986</v>
+        <v>1.04508287654684</v>
       </c>
       <c r="J6">
-        <v>1.039089991787932</v>
+        <v>1.055966495390931</v>
       </c>
       <c r="K6">
-        <v>1.04967806880341</v>
+        <v>1.059564266919963</v>
       </c>
       <c r="L6">
-        <v>1.037388965930983</v>
+        <v>1.057572430898948</v>
       </c>
       <c r="M6">
-        <v>1.054813382414964</v>
+        <v>1.068467774775359</v>
       </c>
       <c r="N6">
-        <v>1.015415334733404</v>
+        <v>1.022271446831811</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018437875489593</v>
+        <v>1.051151166538162</v>
       </c>
       <c r="D7">
-        <v>1.038483424102184</v>
+        <v>1.056819923307907</v>
       </c>
       <c r="E7">
-        <v>1.025738956096567</v>
+        <v>1.054742069227292</v>
       </c>
       <c r="F7">
-        <v>1.043505486152588</v>
+        <v>1.065701457960526</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056753572560701</v>
+        <v>1.044952413392293</v>
       </c>
       <c r="J7">
-        <v>1.037375492686457</v>
+        <v>1.055609360549937</v>
       </c>
       <c r="K7">
-        <v>1.048135703305622</v>
+        <v>1.059251676153275</v>
       </c>
       <c r="L7">
-        <v>1.035533450109702</v>
+        <v>1.057178865655805</v>
       </c>
       <c r="M7">
-        <v>1.053102895461953</v>
+        <v>1.068111890729911</v>
       </c>
       <c r="N7">
-        <v>1.014787146612747</v>
+        <v>1.022145806772173</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008616477939688</v>
+        <v>1.049189740573841</v>
       </c>
       <c r="D8">
-        <v>1.030695769939819</v>
+        <v>1.05526215758769</v>
       </c>
       <c r="E8">
-        <v>1.016574394839308</v>
+        <v>1.052845210487636</v>
       </c>
       <c r="F8">
-        <v>1.035000252719704</v>
+        <v>1.06396513326168</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053245156471649</v>
+        <v>1.044402466845946</v>
       </c>
       <c r="J8">
-        <v>1.029977653141048</v>
+        <v>1.054112733220881</v>
       </c>
       <c r="K8">
-        <v>1.041475400708078</v>
+        <v>1.057940912438417</v>
       </c>
       <c r="L8">
-        <v>1.027534439883316</v>
+        <v>1.05553047118295</v>
       </c>
       <c r="M8">
-        <v>1.045726109387523</v>
+        <v>1.066620726397469</v>
       </c>
       <c r="N8">
-        <v>1.012070724783044</v>
+        <v>1.021618165670216</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9900504046020487</v>
+        <v>1.045721460649754</v>
       </c>
       <c r="D9">
-        <v>1.01599782069876</v>
+        <v>1.052505421546323</v>
       </c>
       <c r="E9">
-        <v>0.9993007841880288</v>
+        <v>1.049493549956164</v>
       </c>
       <c r="F9">
-        <v>1.018972136078497</v>
+        <v>1.06089563472792</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04649628989435</v>
+        <v>1.04341577218937</v>
       </c>
       <c r="J9">
-        <v>1.015959468127476</v>
+        <v>1.051460544967241</v>
       </c>
       <c r="K9">
-        <v>1.028836569148789</v>
+        <v>1.055615080187569</v>
       </c>
       <c r="L9">
-        <v>1.012405215876571</v>
+        <v>1.052612729341264</v>
       </c>
       <c r="M9">
-        <v>1.031764724206772</v>
+        <v>1.063979082663324</v>
       </c>
       <c r="N9">
-        <v>1.006902827381651</v>
+        <v>1.020678888888288</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9766619764391782</v>
+        <v>1.043400721997567</v>
       </c>
       <c r="D10">
-        <v>1.005424348737679</v>
+        <v>1.050659368637467</v>
       </c>
       <c r="E10">
-        <v>0.9868851271136658</v>
+        <v>1.047252529611018</v>
       </c>
       <c r="F10">
-        <v>1.007457664670183</v>
+        <v>1.058842305877132</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041555304111374</v>
+        <v>1.042745979172082</v>
       </c>
       <c r="J10">
-        <v>1.005833148332052</v>
+        <v>1.049682014033364</v>
       </c>
       <c r="K10">
-        <v>1.019696350725151</v>
+        <v>1.054053395849909</v>
       </c>
       <c r="L10">
-        <v>1.001495282016634</v>
+        <v>1.050658400170753</v>
       </c>
       <c r="M10">
-        <v>1.021693561653291</v>
+        <v>1.062208228803131</v>
       </c>
       <c r="N10">
-        <v>1.003158087551746</v>
+        <v>1.020046186412452</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9705812736378026</v>
+        <v>1.042393679377517</v>
       </c>
       <c r="D11">
-        <v>1.000630658086361</v>
+        <v>1.049857982163744</v>
       </c>
       <c r="E11">
-        <v>0.9812575065748359</v>
+        <v>1.046280486933973</v>
       </c>
       <c r="F11">
-        <v>1.002240999713226</v>
+        <v>1.057951451713773</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039294967221991</v>
+        <v>1.04245307188364</v>
       </c>
       <c r="J11">
-        <v>1.001231269184416</v>
+        <v>1.048909341547458</v>
       </c>
       <c r="K11">
-        <v>1.015540690911736</v>
+        <v>1.053374460847335</v>
       </c>
       <c r="L11">
-        <v>0.9965417512094157</v>
+        <v>1.049809892786797</v>
       </c>
       <c r="M11">
-        <v>1.017120777446326</v>
+        <v>1.061439040714782</v>
       </c>
       <c r="N11">
-        <v>1.001454146130211</v>
+        <v>1.019770644783733</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.968275702723826</v>
+        <v>1.042019286831054</v>
       </c>
       <c r="D12">
-        <v>0.9988145923044415</v>
+        <v>1.0495599996319</v>
       </c>
       <c r="E12">
-        <v>0.9791255761643631</v>
+        <v>1.045919168389354</v>
       </c>
       <c r="F12">
-        <v>1.00026522817022</v>
+        <v>1.057620278969486</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0384356236636</v>
+        <v>1.042343836999897</v>
       </c>
       <c r="J12">
-        <v>0.9994861363025622</v>
+        <v>1.0486219453852</v>
       </c>
       <c r="K12">
-        <v>1.013964538147283</v>
+        <v>1.053121860191005</v>
       </c>
       <c r="L12">
-        <v>0.9946639303329161</v>
+        <v>1.049494370768461</v>
       </c>
       <c r="M12">
-        <v>1.015387348590433</v>
+        <v>1.061152963434989</v>
       </c>
       <c r="N12">
-        <v>1.000807707650772</v>
+        <v>1.019668056886031</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9687724556332727</v>
+        <v>1.042099610482867</v>
       </c>
       <c r="D13">
-        <v>0.999205804920668</v>
+        <v>1.04962393211495</v>
       </c>
       <c r="E13">
-        <v>0.9795848307777631</v>
+        <v>1.045996684280565</v>
       </c>
       <c r="F13">
-        <v>1.000690820238612</v>
+        <v>1.057691328971981</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038620877738529</v>
+        <v>1.042367288035258</v>
       </c>
       <c r="J13">
-        <v>0.999862148597344</v>
+        <v>1.048683610654053</v>
       </c>
       <c r="K13">
-        <v>1.014304151174554</v>
+        <v>1.053176062719201</v>
       </c>
       <c r="L13">
-        <v>0.995068502054401</v>
+        <v>1.049562067209198</v>
       </c>
       <c r="M13">
-        <v>1.015760807709144</v>
+        <v>1.061214344675912</v>
       </c>
       <c r="N13">
-        <v>1.000947002559218</v>
+        <v>1.019690073215107</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9703916790657874</v>
+        <v>1.042362738802037</v>
       </c>
       <c r="D14">
-        <v>1.000481284853549</v>
+        <v>1.049833357234994</v>
       </c>
       <c r="E14">
-        <v>0.9810821525932856</v>
+        <v>1.046250625554281</v>
       </c>
       <c r="F14">
-        <v>1.002078479727479</v>
+        <v>1.057924082417078</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039224346608718</v>
+        <v>1.042444051407404</v>
       </c>
       <c r="J14">
-        <v>1.00108776598518</v>
+        <v>1.048885593312383</v>
       </c>
       <c r="K14">
-        <v>1.015411087505032</v>
+        <v>1.053353589278041</v>
       </c>
       <c r="L14">
-        <v>0.9963873235336805</v>
+        <v>1.049783818793538</v>
       </c>
       <c r="M14">
-        <v>1.01697822268299</v>
+        <v>1.06141540099343</v>
       </c>
       <c r="N14">
-        <v>1.001400994211838</v>
+        <v>1.019762169735712</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9713829772676644</v>
+        <v>1.042524816556346</v>
       </c>
       <c r="D15">
-        <v>1.001262348330994</v>
+        <v>1.049962349438713</v>
       </c>
       <c r="E15">
-        <v>0.9819990697038445</v>
+        <v>1.046407052635709</v>
       </c>
       <c r="F15">
-        <v>1.002928308470937</v>
+        <v>1.058067453527973</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039593494616867</v>
+        <v>1.042491289979688</v>
       </c>
       <c r="J15">
-        <v>1.001838064386336</v>
+        <v>1.049009989444816</v>
       </c>
       <c r="K15">
-        <v>1.016088702358527</v>
+        <v>1.053462914214715</v>
       </c>
       <c r="L15">
-        <v>0.9971947669660608</v>
+        <v>1.049920400843802</v>
       </c>
       <c r="M15">
-        <v>1.017723589880081</v>
+        <v>1.061539229656077</v>
       </c>
       <c r="N15">
-        <v>1.001678885544972</v>
+        <v>1.019806558974579</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9770592039975934</v>
+        <v>1.043467510050314</v>
       </c>
       <c r="D16">
-        <v>1.005737696543936</v>
+        <v>1.050712510630593</v>
       </c>
       <c r="E16">
-        <v>0.987253002174962</v>
+        <v>1.047317005072408</v>
       </c>
       <c r="F16">
-        <v>1.007798735336173</v>
+        <v>1.058901391480197</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04170263755641</v>
+        <v>1.042765357476789</v>
       </c>
       <c r="J16">
-        <v>1.006133724715286</v>
+        <v>1.049733239290255</v>
       </c>
       <c r="K16">
-        <v>1.019967746518189</v>
+        <v>1.054098396808129</v>
       </c>
       <c r="L16">
-        <v>1.001818918679638</v>
+        <v>1.050714664341956</v>
       </c>
       <c r="M16">
-        <v>1.021992326203163</v>
+        <v>1.062259226234304</v>
       </c>
       <c r="N16">
-        <v>1.003269342347859</v>
+        <v>1.020064439758431</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9805409877782419</v>
+        <v>1.044058255188459</v>
       </c>
       <c r="D17">
-        <v>1.008485242335841</v>
+        <v>1.051182518017036</v>
       </c>
       <c r="E17">
-        <v>0.9904787911918941</v>
+        <v>1.047887342295652</v>
       </c>
       <c r="F17">
-        <v>1.010789774737852</v>
+        <v>1.059424025455829</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04299222980048</v>
+        <v>1.042936498933227</v>
       </c>
       <c r="J17">
-        <v>1.008768045728688</v>
+        <v>1.050186225301155</v>
       </c>
       <c r="K17">
-        <v>1.022346112435506</v>
+        <v>1.0544962870373</v>
       </c>
       <c r="L17">
-        <v>1.004655846924285</v>
+        <v>1.051212271798858</v>
       </c>
       <c r="M17">
-        <v>1.024611228498104</v>
+        <v>1.062710214833255</v>
       </c>
       <c r="N17">
-        <v>1.004244168885469</v>
+        <v>1.020225777518911</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.982544830702788</v>
+        <v>1.044402620275487</v>
       </c>
       <c r="D18">
-        <v>1.010067297801048</v>
+        <v>1.051456469619062</v>
       </c>
       <c r="E18">
-        <v>0.9923363493663057</v>
+        <v>1.04821985016103</v>
       </c>
       <c r="F18">
-        <v>1.012512378470011</v>
+        <v>1.059728700716539</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043732884823469</v>
+        <v>1.043036044935979</v>
       </c>
       <c r="J18">
-        <v>1.010283887989781</v>
+        <v>1.050450198158207</v>
       </c>
       <c r="K18">
-        <v>1.023714490153547</v>
+        <v>1.054728108090853</v>
       </c>
       <c r="L18">
-        <v>1.00628869174751</v>
+        <v>1.051502299306063</v>
       </c>
       <c r="M18">
-        <v>1.026118571502196</v>
+        <v>1.062973038050587</v>
       </c>
       <c r="N18">
-        <v>1.004804898205971</v>
+        <v>1.02031973109023</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9832236281139204</v>
+        <v>1.044520005119694</v>
       </c>
       <c r="D19">
-        <v>1.010603341811793</v>
+        <v>1.051549847025555</v>
       </c>
       <c r="E19">
-        <v>0.9929657662691553</v>
+        <v>1.048333199829743</v>
       </c>
       <c r="F19">
-        <v>1.013096102630659</v>
+        <v>1.059832558773008</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04398351626802</v>
+        <v>1.043069940502075</v>
       </c>
       <c r="J19">
-        <v>1.010797327127622</v>
+        <v>1.050540164530217</v>
       </c>
       <c r="K19">
-        <v>1.02417794835618</v>
+        <v>1.054807108890749</v>
       </c>
       <c r="L19">
-        <v>1.006841832515248</v>
+        <v>1.051601154356627</v>
       </c>
       <c r="M19">
-        <v>1.026629193279095</v>
+        <v>1.063062615023233</v>
       </c>
       <c r="N19">
-        <v>1.00499478936299</v>
+        <v>1.020351741120963</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9801702498805741</v>
+        <v>1.043994895259537</v>
       </c>
       <c r="D20">
-        <v>1.008192602627879</v>
+        <v>1.05113211096695</v>
       </c>
       <c r="E20">
-        <v>0.9901352016666827</v>
+        <v>1.047826167138366</v>
       </c>
       <c r="F20">
-        <v>1.010471165076444</v>
+        <v>1.059367969235006</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04285507347664</v>
+        <v>1.042918165842342</v>
       </c>
       <c r="J20">
-        <v>1.008487571943653</v>
+        <v>1.050137649707974</v>
       </c>
       <c r="K20">
-        <v>1.022092908615249</v>
+        <v>1.054453624281887</v>
       </c>
       <c r="L20">
-        <v>1.004353758274152</v>
+        <v>1.051158905883693</v>
       </c>
       <c r="M20">
-        <v>1.024332357112263</v>
+        <v>1.062661851944803</v>
       </c>
       <c r="N20">
-        <v>1.004140400999704</v>
+        <v>1.02020848324583</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9699161915530942</v>
+        <v>1.042285263313558</v>
       </c>
       <c r="D21">
-        <v>1.000106694410004</v>
+        <v>1.049771695419117</v>
       </c>
       <c r="E21">
-        <v>0.9806424095831447</v>
+        <v>1.046175853384525</v>
       </c>
       <c r="F21">
-        <v>1.001670929113161</v>
+        <v>1.057855549834554</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039047199302874</v>
+        <v>1.04242145856973</v>
       </c>
       <c r="J21">
-        <v>1.000727867892548</v>
+        <v>1.048826125309733</v>
       </c>
       <c r="K21">
-        <v>1.015086045715215</v>
+        <v>1.053301323607241</v>
       </c>
       <c r="L21">
-        <v>0.9960000381473257</v>
+        <v>1.049718528162939</v>
       </c>
       <c r="M21">
-        <v>1.016620714228526</v>
+        <v>1.061356205090888</v>
       </c>
       <c r="N21">
-        <v>1.001267688054036</v>
+        <v>1.019740945738015</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9631949219955033</v>
+        <v>1.041208423817898</v>
       </c>
       <c r="D22">
-        <v>0.9948156276965132</v>
+        <v>1.048914540311687</v>
       </c>
       <c r="E22">
-        <v>0.9744310503435692</v>
+        <v>1.045136735204493</v>
       </c>
       <c r="F22">
-        <v>0.9959155679854581</v>
+        <v>1.05690306697166</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036537786852235</v>
+        <v>1.042106634484291</v>
       </c>
       <c r="J22">
-        <v>0.9956400503423557</v>
+        <v>1.047999250979627</v>
       </c>
       <c r="K22">
-        <v>1.010490492407175</v>
+        <v>1.052574428339141</v>
       </c>
       <c r="L22">
-        <v>0.9905266394042848</v>
+        <v>1.048810884863499</v>
       </c>
       <c r="M22">
-        <v>1.011568374844346</v>
+        <v>1.060533168938667</v>
       </c>
       <c r="N22">
-        <v>0.999382601969742</v>
+        <v>1.019445599609166</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9667855992132566</v>
+        <v>1.041779462546431</v>
       </c>
       <c r="D23">
-        <v>0.9976413193543153</v>
+        <v>1.04936910797362</v>
       </c>
       <c r="E23">
-        <v>0.9777482399379902</v>
+        <v>1.045687736423863</v>
       </c>
       <c r="F23">
-        <v>0.9989889265446099</v>
+        <v>1.057408146845643</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037879591815404</v>
+        <v>1.042273768995838</v>
       </c>
       <c r="J23">
-        <v>0.9983581880523208</v>
+        <v>1.048437809952343</v>
       </c>
       <c r="K23">
-        <v>1.012945748787208</v>
+        <v>1.052959998606046</v>
       </c>
       <c r="L23">
-        <v>0.9934504078494457</v>
+        <v>1.049292237823789</v>
       </c>
       <c r="M23">
-        <v>1.014267163048946</v>
+        <v>1.060969679504866</v>
       </c>
       <c r="N23">
-        <v>1.000389821346344</v>
+        <v>1.019602300466257</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9803378535648134</v>
+        <v>1.044023525522575</v>
       </c>
       <c r="D24">
-        <v>1.008324897163414</v>
+        <v>1.051154888348266</v>
       </c>
       <c r="E24">
-        <v>0.9902905288395468</v>
+        <v>1.047853810053906</v>
       </c>
       <c r="F24">
-        <v>1.010615198862345</v>
+        <v>1.059393299148583</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042917084066499</v>
+        <v>1.042926450635821</v>
       </c>
       <c r="J24">
-        <v>1.008614369747781</v>
+        <v>1.050159599688623</v>
       </c>
       <c r="K24">
-        <v>1.022207378667221</v>
+        <v>1.054472902553151</v>
       </c>
       <c r="L24">
-        <v>1.004490326520076</v>
+        <v>1.051183020319028</v>
       </c>
       <c r="M24">
-        <v>1.024458429342349</v>
+        <v>1.062683705765739</v>
       </c>
       <c r="N24">
-        <v>1.00418731347906</v>
+        <v>1.020216298253223</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9950151361859874</v>
+        <v>1.04661956565824</v>
       </c>
       <c r="D25">
-        <v>1.019924566572031</v>
+        <v>1.053219530201296</v>
       </c>
       <c r="E25">
-        <v>1.003913452327133</v>
+        <v>1.050361162894234</v>
       </c>
       <c r="F25">
-        <v>1.023251510580161</v>
+        <v>1.061690380378365</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048313998374908</v>
+        <v>1.043672959743015</v>
       </c>
       <c r="J25">
-        <v>1.01971143338962</v>
+        <v>1.052148006614294</v>
       </c>
       <c r="K25">
-        <v>1.032221257156722</v>
+        <v>1.056218302683831</v>
       </c>
       <c r="L25">
-        <v>1.016451319242975</v>
+        <v>1.053368622910957</v>
       </c>
       <c r="M25">
-        <v>1.035499289395414</v>
+        <v>1.064663706402571</v>
       </c>
       <c r="N25">
-        <v>1.008288162787826</v>
+        <v>1.020922853933943</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_236/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_236/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04868399285477</v>
+        <v>1.00600795295329</v>
       </c>
       <c r="D2">
-        <v>1.054860339134333</v>
+        <v>1.02862865158229</v>
       </c>
       <c r="E2">
-        <v>1.052356275818464</v>
+        <v>1.014143472054142</v>
       </c>
       <c r="F2">
-        <v>1.063517475306389</v>
+        <v>1.032744271856149</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04425969776581</v>
+        <v>1.052305491318556</v>
       </c>
       <c r="J2">
-        <v>1.053726439327648</v>
+        <v>1.02801044017494</v>
       </c>
       <c r="K2">
-        <v>1.057602386701298</v>
+        <v>1.039703047124613</v>
       </c>
       <c r="L2">
-        <v>1.055105234753143</v>
+        <v>1.025409220591187</v>
       </c>
       <c r="M2">
-        <v>1.066235900098111</v>
+        <v>1.043765523657949</v>
       </c>
       <c r="N2">
-        <v>1.021481688717232</v>
+        <v>1.011346953803805</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.050179542769677</v>
+        <v>1.013630184712427</v>
       </c>
       <c r="D3">
-        <v>1.056048379611261</v>
+        <v>1.034670419615365</v>
       </c>
       <c r="E3">
-        <v>1.053802302063283</v>
+        <v>1.021250441755796</v>
       </c>
       <c r="F3">
-        <v>1.064841305221988</v>
+        <v>1.039339895077239</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044680743021511</v>
+        <v>1.055042254072415</v>
       </c>
       <c r="J3">
-        <v>1.054868289139907</v>
+        <v>1.033756049996926</v>
       </c>
       <c r="K3">
-        <v>1.058602797307515</v>
+        <v>1.04487810201552</v>
       </c>
       <c r="L3">
-        <v>1.056362465725956</v>
+        <v>1.031618451851392</v>
       </c>
       <c r="M3">
-        <v>1.067373479898062</v>
+        <v>1.049492992224178</v>
       </c>
       <c r="N3">
-        <v>1.021884764034187</v>
+        <v>1.01345924454607</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05114574237534</v>
+        <v>1.0184113417332</v>
       </c>
       <c r="D4">
-        <v>1.056815616780974</v>
+        <v>1.038462376073944</v>
       </c>
       <c r="E4">
-        <v>1.054736822203036</v>
+        <v>1.025714171407777</v>
       </c>
       <c r="F4">
-        <v>1.065696655898541</v>
+        <v>1.043482484928379</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044950900949727</v>
+        <v>1.056744161697133</v>
       </c>
       <c r="J4">
-        <v>1.055605225164153</v>
+        <v>1.037355527700123</v>
       </c>
       <c r="K4">
-        <v>1.059248056116493</v>
+        <v>1.04811773990221</v>
       </c>
       <c r="L4">
-        <v>1.057174308922963</v>
+        <v>1.035511846947938</v>
       </c>
       <c r="M4">
-        <v>1.068107769947436</v>
+        <v>1.053082979111453</v>
       </c>
       <c r="N4">
-        <v>1.022144351324956</v>
+        <v>1.014779828240084</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.051551576218142</v>
+        <v>1.020387273854505</v>
       </c>
       <c r="D5">
-        <v>1.057137808254773</v>
+        <v>1.04002990249334</v>
       </c>
       <c r="E5">
-        <v>1.055129424573855</v>
+        <v>1.027560233849028</v>
       </c>
       <c r="F5">
-        <v>1.066055950338016</v>
+        <v>1.045195690324139</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045063930312082</v>
+        <v>1.057443903551214</v>
       </c>
       <c r="J5">
-        <v>1.055914579800928</v>
+        <v>1.038841945538964</v>
       </c>
       <c r="K5">
-        <v>1.059518831271309</v>
+        <v>1.049454956782176</v>
       </c>
       <c r="L5">
-        <v>1.057515214287037</v>
+        <v>1.037120476243865</v>
       </c>
       <c r="M5">
-        <v>1.06841603973656</v>
+        <v>1.054565896520728</v>
       </c>
       <c r="N5">
-        <v>1.022253189505872</v>
+        <v>1.015324485910418</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.051619696825591</v>
+        <v>1.02071710072472</v>
       </c>
       <c r="D6">
-        <v>1.057191884950341</v>
+        <v>1.040291578103738</v>
       </c>
       <c r="E6">
-        <v>1.055195328607812</v>
+        <v>1.027868457965591</v>
       </c>
       <c r="F6">
-        <v>1.066116260321004</v>
+        <v>1.045481728298623</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04508287654684</v>
+        <v>1.057560491435986</v>
       </c>
       <c r="J6">
-        <v>1.055966495390931</v>
+        <v>1.039089991787932</v>
       </c>
       <c r="K6">
-        <v>1.059564266919963</v>
+        <v>1.04967806880341</v>
       </c>
       <c r="L6">
-        <v>1.057572430898948</v>
+        <v>1.037388965930983</v>
       </c>
       <c r="M6">
-        <v>1.068467774775359</v>
+        <v>1.054813382414964</v>
       </c>
       <c r="N6">
-        <v>1.022271446831811</v>
+        <v>1.015415334733404</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051151166538162</v>
+        <v>1.018437875489592</v>
       </c>
       <c r="D7">
-        <v>1.056819923307907</v>
+        <v>1.038483424102183</v>
       </c>
       <c r="E7">
-        <v>1.054742069227292</v>
+        <v>1.025738956096566</v>
       </c>
       <c r="F7">
-        <v>1.065701457960526</v>
+        <v>1.043505486152587</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044952413392293</v>
+        <v>1.0567535725607</v>
       </c>
       <c r="J7">
-        <v>1.055609360549937</v>
+        <v>1.037375492686456</v>
       </c>
       <c r="K7">
-        <v>1.059251676153275</v>
+        <v>1.04813570330562</v>
       </c>
       <c r="L7">
-        <v>1.057178865655805</v>
+        <v>1.0355334501097</v>
       </c>
       <c r="M7">
-        <v>1.068111890729911</v>
+        <v>1.053102895461953</v>
       </c>
       <c r="N7">
-        <v>1.022145806772173</v>
+        <v>1.014787146612746</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049189740573841</v>
+        <v>1.008616477939687</v>
       </c>
       <c r="D8">
-        <v>1.05526215758769</v>
+        <v>1.030695769939818</v>
       </c>
       <c r="E8">
-        <v>1.052845210487636</v>
+        <v>1.016574394839307</v>
       </c>
       <c r="F8">
-        <v>1.06396513326168</v>
+        <v>1.035000252719704</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044402466845946</v>
+        <v>1.053245156471648</v>
       </c>
       <c r="J8">
-        <v>1.054112733220881</v>
+        <v>1.029977653141047</v>
       </c>
       <c r="K8">
-        <v>1.057940912438417</v>
+        <v>1.041475400708077</v>
       </c>
       <c r="L8">
-        <v>1.05553047118295</v>
+        <v>1.027534439883315</v>
       </c>
       <c r="M8">
-        <v>1.066620726397469</v>
+        <v>1.045726109387523</v>
       </c>
       <c r="N8">
-        <v>1.021618165670216</v>
+        <v>1.012070724783043</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045721460649754</v>
+        <v>0.9900504046020485</v>
       </c>
       <c r="D9">
-        <v>1.052505421546323</v>
+        <v>1.01599782069876</v>
       </c>
       <c r="E9">
-        <v>1.049493549956164</v>
+        <v>0.9993007841880287</v>
       </c>
       <c r="F9">
-        <v>1.06089563472792</v>
+        <v>1.018972136078497</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04341577218937</v>
+        <v>1.04649628989435</v>
       </c>
       <c r="J9">
-        <v>1.051460544967241</v>
+        <v>1.015959468127476</v>
       </c>
       <c r="K9">
-        <v>1.055615080187569</v>
+        <v>1.028836569148789</v>
       </c>
       <c r="L9">
-        <v>1.052612729341264</v>
+        <v>1.012405215876571</v>
       </c>
       <c r="M9">
-        <v>1.063979082663324</v>
+        <v>1.031764724206772</v>
       </c>
       <c r="N9">
-        <v>1.020678888888288</v>
+        <v>1.006902827381651</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043400721997567</v>
+        <v>0.9766619764391776</v>
       </c>
       <c r="D10">
-        <v>1.050659368637467</v>
+        <v>1.005424348737679</v>
       </c>
       <c r="E10">
-        <v>1.047252529611018</v>
+        <v>0.9868851271136654</v>
       </c>
       <c r="F10">
-        <v>1.058842305877132</v>
+        <v>1.007457664670182</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042745979172082</v>
+        <v>1.041555304111374</v>
       </c>
       <c r="J10">
-        <v>1.049682014033364</v>
+        <v>1.005833148332052</v>
       </c>
       <c r="K10">
-        <v>1.054053395849909</v>
+        <v>1.019696350725151</v>
       </c>
       <c r="L10">
-        <v>1.050658400170753</v>
+        <v>1.001495282016634</v>
       </c>
       <c r="M10">
-        <v>1.062208228803131</v>
+        <v>1.021693561653291</v>
       </c>
       <c r="N10">
-        <v>1.020046186412452</v>
+        <v>1.003158087551746</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.042393679377517</v>
+        <v>0.9705812736378011</v>
       </c>
       <c r="D11">
-        <v>1.049857982163744</v>
+        <v>1.00063065808636</v>
       </c>
       <c r="E11">
-        <v>1.046280486933973</v>
+        <v>0.9812575065748347</v>
       </c>
       <c r="F11">
-        <v>1.057951451713773</v>
+        <v>1.002240999713225</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04245307188364</v>
+        <v>1.03929496722199</v>
       </c>
       <c r="J11">
-        <v>1.048909341547458</v>
+        <v>1.001231269184415</v>
       </c>
       <c r="K11">
-        <v>1.053374460847335</v>
+        <v>1.015540690911735</v>
       </c>
       <c r="L11">
-        <v>1.049809892786797</v>
+        <v>0.9965417512094144</v>
       </c>
       <c r="M11">
-        <v>1.061439040714782</v>
+        <v>1.017120777446324</v>
       </c>
       <c r="N11">
-        <v>1.019770644783733</v>
+        <v>1.00145414613021</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.042019286831054</v>
+        <v>0.9682757027238252</v>
       </c>
       <c r="D12">
-        <v>1.0495599996319</v>
+        <v>0.998814592304441</v>
       </c>
       <c r="E12">
-        <v>1.045919168389354</v>
+        <v>0.9791255761643628</v>
       </c>
       <c r="F12">
-        <v>1.057620278969486</v>
+        <v>1.00026522817022</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042343836999897</v>
+        <v>1.0384356236636</v>
       </c>
       <c r="J12">
-        <v>1.0486219453852</v>
+        <v>0.9994861363025613</v>
       </c>
       <c r="K12">
-        <v>1.053121860191005</v>
+        <v>1.013964538147283</v>
       </c>
       <c r="L12">
-        <v>1.049494370768461</v>
+        <v>0.9946639303329156</v>
       </c>
       <c r="M12">
-        <v>1.061152963434989</v>
+        <v>1.015387348590433</v>
       </c>
       <c r="N12">
-        <v>1.019668056886031</v>
+        <v>1.000807707650772</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.042099610482867</v>
+        <v>0.9687724556332707</v>
       </c>
       <c r="D13">
-        <v>1.04962393211495</v>
+        <v>0.9992058049206657</v>
       </c>
       <c r="E13">
-        <v>1.045996684280565</v>
+        <v>0.9795848307777617</v>
       </c>
       <c r="F13">
-        <v>1.057691328971981</v>
+        <v>1.00069082023861</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042367288035258</v>
+        <v>1.038620877738527</v>
       </c>
       <c r="J13">
-        <v>1.048683610654053</v>
+        <v>0.9998621485973421</v>
       </c>
       <c r="K13">
-        <v>1.053176062719201</v>
+        <v>1.014304151174552</v>
       </c>
       <c r="L13">
-        <v>1.049562067209198</v>
+        <v>0.9950685020543996</v>
       </c>
       <c r="M13">
-        <v>1.061214344675912</v>
+        <v>1.015760807709142</v>
       </c>
       <c r="N13">
-        <v>1.019690073215107</v>
+        <v>1.000947002559218</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.042362738802037</v>
+        <v>0.9703916790657902</v>
       </c>
       <c r="D14">
-        <v>1.049833357234994</v>
+        <v>1.000481284853551</v>
       </c>
       <c r="E14">
-        <v>1.046250625554281</v>
+        <v>0.9810821525932882</v>
       </c>
       <c r="F14">
-        <v>1.057924082417078</v>
+        <v>1.002078479727482</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042444051407404</v>
+        <v>1.039224346608719</v>
       </c>
       <c r="J14">
-        <v>1.048885593312383</v>
+        <v>1.001087765985182</v>
       </c>
       <c r="K14">
-        <v>1.053353589278041</v>
+        <v>1.015411087505034</v>
       </c>
       <c r="L14">
-        <v>1.049783818793538</v>
+        <v>0.9963873235336833</v>
       </c>
       <c r="M14">
-        <v>1.06141540099343</v>
+        <v>1.016978222682992</v>
       </c>
       <c r="N14">
-        <v>1.019762169735712</v>
+        <v>1.001400994211838</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.042524816556346</v>
+        <v>0.9713829772676648</v>
       </c>
       <c r="D15">
-        <v>1.049962349438713</v>
+        <v>1.001262348330995</v>
       </c>
       <c r="E15">
-        <v>1.046407052635709</v>
+        <v>0.9819990697038447</v>
       </c>
       <c r="F15">
-        <v>1.058067453527973</v>
+        <v>1.002928308470937</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042491289979688</v>
+        <v>1.039593494616868</v>
       </c>
       <c r="J15">
-        <v>1.049009989444816</v>
+        <v>1.001838064386337</v>
       </c>
       <c r="K15">
-        <v>1.053462914214715</v>
+        <v>1.016088702358527</v>
       </c>
       <c r="L15">
-        <v>1.049920400843802</v>
+        <v>0.9971947669660608</v>
       </c>
       <c r="M15">
-        <v>1.061539229656077</v>
+        <v>1.017723589880082</v>
       </c>
       <c r="N15">
-        <v>1.019806558974579</v>
+        <v>1.001678885544972</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043467510050314</v>
+        <v>0.9770592039975934</v>
       </c>
       <c r="D16">
-        <v>1.050712510630593</v>
+        <v>1.005737696543936</v>
       </c>
       <c r="E16">
-        <v>1.047317005072408</v>
+        <v>0.987253002174962</v>
       </c>
       <c r="F16">
-        <v>1.058901391480197</v>
+        <v>1.007798735336173</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042765357476789</v>
+        <v>1.04170263755641</v>
       </c>
       <c r="J16">
-        <v>1.049733239290255</v>
+        <v>1.006133724715286</v>
       </c>
       <c r="K16">
-        <v>1.054098396808129</v>
+        <v>1.019967746518189</v>
       </c>
       <c r="L16">
-        <v>1.050714664341956</v>
+        <v>1.001818918679638</v>
       </c>
       <c r="M16">
-        <v>1.062259226234304</v>
+        <v>1.021992326203164</v>
       </c>
       <c r="N16">
-        <v>1.020064439758431</v>
+        <v>1.003269342347859</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044058255188459</v>
+        <v>0.9805409877782424</v>
       </c>
       <c r="D17">
-        <v>1.051182518017036</v>
+        <v>1.008485242335842</v>
       </c>
       <c r="E17">
-        <v>1.047887342295652</v>
+        <v>0.9904787911918947</v>
       </c>
       <c r="F17">
-        <v>1.059424025455829</v>
+        <v>1.010789774737853</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042936498933227</v>
+        <v>1.042992229800481</v>
       </c>
       <c r="J17">
-        <v>1.050186225301155</v>
+        <v>1.008768045728689</v>
       </c>
       <c r="K17">
-        <v>1.0544962870373</v>
+        <v>1.022346112435506</v>
       </c>
       <c r="L17">
-        <v>1.051212271798858</v>
+        <v>1.004655846924286</v>
       </c>
       <c r="M17">
-        <v>1.062710214833255</v>
+        <v>1.024611228498105</v>
       </c>
       <c r="N17">
-        <v>1.020225777518911</v>
+        <v>1.004244168885469</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044402620275487</v>
+        <v>0.9825448307027884</v>
       </c>
       <c r="D18">
-        <v>1.051456469619062</v>
+        <v>1.010067297801048</v>
       </c>
       <c r="E18">
-        <v>1.04821985016103</v>
+        <v>0.992336349366306</v>
       </c>
       <c r="F18">
-        <v>1.059728700716539</v>
+        <v>1.012512378470011</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043036044935979</v>
+        <v>1.043732884823469</v>
       </c>
       <c r="J18">
-        <v>1.050450198158207</v>
+        <v>1.010283887989782</v>
       </c>
       <c r="K18">
-        <v>1.054728108090853</v>
+        <v>1.023714490153547</v>
       </c>
       <c r="L18">
-        <v>1.051502299306063</v>
+        <v>1.00628869174751</v>
       </c>
       <c r="M18">
-        <v>1.062973038050587</v>
+        <v>1.026118571502196</v>
       </c>
       <c r="N18">
-        <v>1.02031973109023</v>
+        <v>1.004804898205971</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044520005119694</v>
+        <v>0.9832236281139195</v>
       </c>
       <c r="D19">
-        <v>1.051549847025555</v>
+        <v>1.010603341811792</v>
       </c>
       <c r="E19">
-        <v>1.048333199829743</v>
+        <v>0.9929657662691544</v>
       </c>
       <c r="F19">
-        <v>1.059832558773008</v>
+        <v>1.013096102630658</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043069940502075</v>
+        <v>1.043983516268019</v>
       </c>
       <c r="J19">
-        <v>1.050540164530217</v>
+        <v>1.010797327127621</v>
       </c>
       <c r="K19">
-        <v>1.054807108890749</v>
+        <v>1.02417794835618</v>
       </c>
       <c r="L19">
-        <v>1.051601154356627</v>
+        <v>1.006841832515247</v>
       </c>
       <c r="M19">
-        <v>1.063062615023233</v>
+        <v>1.026629193279094</v>
       </c>
       <c r="N19">
-        <v>1.020351741120963</v>
+        <v>1.00499478936299</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043994895259537</v>
+        <v>0.9801702498805752</v>
       </c>
       <c r="D20">
-        <v>1.05113211096695</v>
+        <v>1.008192602627881</v>
       </c>
       <c r="E20">
-        <v>1.047826167138366</v>
+        <v>0.990135201666684</v>
       </c>
       <c r="F20">
-        <v>1.059367969235006</v>
+        <v>1.010471165076445</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042918165842342</v>
+        <v>1.042855073476641</v>
       </c>
       <c r="J20">
-        <v>1.050137649707974</v>
+        <v>1.008487571943655</v>
       </c>
       <c r="K20">
-        <v>1.054453624281887</v>
+        <v>1.022092908615251</v>
       </c>
       <c r="L20">
-        <v>1.051158905883693</v>
+        <v>1.004353758274154</v>
       </c>
       <c r="M20">
-        <v>1.062661851944803</v>
+        <v>1.024332357112264</v>
       </c>
       <c r="N20">
-        <v>1.02020848324583</v>
+        <v>1.004140400999704</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.042285263313558</v>
+        <v>0.9699161915530959</v>
       </c>
       <c r="D21">
-        <v>1.049771695419117</v>
+        <v>1.000106694410006</v>
       </c>
       <c r="E21">
-        <v>1.046175853384525</v>
+        <v>0.9806424095831465</v>
       </c>
       <c r="F21">
-        <v>1.057855549834554</v>
+        <v>1.001670929113163</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04242145856973</v>
+        <v>1.039047199302875</v>
       </c>
       <c r="J21">
-        <v>1.048826125309733</v>
+        <v>1.00072786789255</v>
       </c>
       <c r="K21">
-        <v>1.053301323607241</v>
+        <v>1.015086045715217</v>
       </c>
       <c r="L21">
-        <v>1.049718528162939</v>
+        <v>0.9960000381473275</v>
       </c>
       <c r="M21">
-        <v>1.061356205090888</v>
+        <v>1.016620714228528</v>
       </c>
       <c r="N21">
-        <v>1.019740945738015</v>
+        <v>1.001267688054037</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.041208423817898</v>
+        <v>0.9631949219955046</v>
       </c>
       <c r="D22">
-        <v>1.048914540311687</v>
+        <v>0.9948156276965144</v>
       </c>
       <c r="E22">
-        <v>1.045136735204493</v>
+        <v>0.9744310503435708</v>
       </c>
       <c r="F22">
-        <v>1.05690306697166</v>
+        <v>0.995915567985459</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042106634484291</v>
+        <v>1.036537786852235</v>
       </c>
       <c r="J22">
-        <v>1.047999250979627</v>
+        <v>0.9956400503423569</v>
       </c>
       <c r="K22">
-        <v>1.052574428339141</v>
+        <v>1.010490492407176</v>
       </c>
       <c r="L22">
-        <v>1.048810884863499</v>
+        <v>0.9905266394042863</v>
       </c>
       <c r="M22">
-        <v>1.060533168938667</v>
+        <v>1.011568374844347</v>
       </c>
       <c r="N22">
-        <v>1.019445599609166</v>
+        <v>0.9993826019697424</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.041779462546431</v>
+        <v>0.9667855992132579</v>
       </c>
       <c r="D23">
-        <v>1.04936910797362</v>
+        <v>0.9976413193543163</v>
       </c>
       <c r="E23">
-        <v>1.045687736423863</v>
+        <v>0.9777482399379912</v>
       </c>
       <c r="F23">
-        <v>1.057408146845643</v>
+        <v>0.9989889265446111</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042273768995838</v>
+        <v>1.037879591815405</v>
       </c>
       <c r="J23">
-        <v>1.048437809952343</v>
+        <v>0.998358188052322</v>
       </c>
       <c r="K23">
-        <v>1.052959998606046</v>
+        <v>1.012945748787209</v>
       </c>
       <c r="L23">
-        <v>1.049292237823789</v>
+        <v>0.993450407849447</v>
       </c>
       <c r="M23">
-        <v>1.060969679504866</v>
+        <v>1.014267163048947</v>
       </c>
       <c r="N23">
-        <v>1.019602300466257</v>
+        <v>1.000389821346344</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044023525522575</v>
+        <v>0.980337853564812</v>
       </c>
       <c r="D24">
-        <v>1.051154888348266</v>
+        <v>1.008324897163413</v>
       </c>
       <c r="E24">
-        <v>1.047853810053906</v>
+        <v>0.9902905288395457</v>
       </c>
       <c r="F24">
-        <v>1.059393299148583</v>
+        <v>1.010615198862344</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042926450635821</v>
+        <v>1.042917084066498</v>
       </c>
       <c r="J24">
-        <v>1.050159599688623</v>
+        <v>1.00861436974778</v>
       </c>
       <c r="K24">
-        <v>1.054472902553151</v>
+        <v>1.02220737866722</v>
       </c>
       <c r="L24">
-        <v>1.051183020319028</v>
+        <v>1.004490326520075</v>
       </c>
       <c r="M24">
-        <v>1.062683705765739</v>
+        <v>1.024458429342348</v>
       </c>
       <c r="N24">
-        <v>1.020216298253223</v>
+        <v>1.004187313479059</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04661956565824</v>
+        <v>0.9950151361859872</v>
       </c>
       <c r="D25">
-        <v>1.053219530201296</v>
+        <v>1.019924566572031</v>
       </c>
       <c r="E25">
-        <v>1.050361162894234</v>
+        <v>1.003913452327133</v>
       </c>
       <c r="F25">
-        <v>1.061690380378365</v>
+        <v>1.023251510580161</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043672959743015</v>
+        <v>1.048313998374908</v>
       </c>
       <c r="J25">
-        <v>1.052148006614294</v>
+        <v>1.01971143338962</v>
       </c>
       <c r="K25">
-        <v>1.056218302683831</v>
+        <v>1.032221257156722</v>
       </c>
       <c r="L25">
-        <v>1.053368622910957</v>
+        <v>1.016451319242975</v>
       </c>
       <c r="M25">
-        <v>1.064663706402571</v>
+        <v>1.035499289395415</v>
       </c>
       <c r="N25">
-        <v>1.020922853933943</v>
+        <v>1.008288162787827</v>
       </c>
     </row>
   </sheetData>
